--- a/168yywl.xlsx
+++ b/168yywl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="19770" windowHeight="8385" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="t_inqueues_table" sheetId="1" r:id="rId1"/>
@@ -15,22 +15,34 @@
     <sheet name="t_user_common_paths" sheetId="6" r:id="rId6"/>
     <sheet name="t_user_emergency_contact" sheetId="7" r:id="rId7"/>
     <sheet name="t_user_freq_sites" sheetId="8" r:id="rId8"/>
-    <sheet name="t_user_paylist" sheetId="9" r:id="rId9"/>
-    <sheet name="t_user_balances" sheetId="10" r:id="rId10"/>
-    <sheet name="t_user_insurance" sheetId="11" r:id="rId11"/>
-    <sheet name="t_user_shopmall" sheetId="12" r:id="rId12"/>
-    <sheet name="t_user_invites" sheetId="13" r:id="rId13"/>
-    <sheet name="t_user_travel_list" sheetId="14" r:id="rId14"/>
-    <sheet name="t_travel_evaluates" sheetId="15" r:id="rId15"/>
-    <sheet name="t_travel_invoices" sheetId="16" r:id="rId16"/>
-    <sheet name="t_travel_support" sheetId="17" r:id="rId17"/>
+    <sheet name="t_user_pay_types" sheetId="9" r:id="rId9"/>
+    <sheet name="t_pay_transactions" sheetId="10" r:id="rId10"/>
+    <sheet name="t_user_balances" sheetId="11" r:id="rId11"/>
+    <sheet name="t_user_insurance" sheetId="12" r:id="rId12"/>
+    <sheet name="t_user_shopmall" sheetId="13" r:id="rId13"/>
+    <sheet name="t_user_invites" sheetId="14" r:id="rId14"/>
+    <sheet name="t_user_travel_list" sheetId="15" r:id="rId15"/>
+    <sheet name="t_travel_evaluates" sheetId="16" r:id="rId16"/>
+    <sheet name="t_travel_invoices" sheetId="17" r:id="rId17"/>
+    <sheet name="t_travel_support" sheetId="18" r:id="rId18"/>
+    <sheet name="t_shippers_table" sheetId="19" r:id="rId19"/>
+    <sheet name="t_shipper_details" sheetId="20" r:id="rId20"/>
+    <sheet name="t_nations_table" sheetId="21" r:id="rId21"/>
+    <sheet name="t_regions_table" sheetId="22" r:id="rId22"/>
+    <sheet name="t_provinces_table" sheetId="23" r:id="rId23"/>
+    <sheet name="t_cites_table" sheetId="24" r:id="rId24"/>
+    <sheet name="t_countries_table" sheetId="25" r:id="rId25"/>
+    <sheet name="t_city_dim" sheetId="26" r:id="rId26"/>
+    <sheet name="t_lookups" sheetId="27" r:id="rId27"/>
+    <sheet name="t_lookup_values" sheetId="28" r:id="rId28"/>
+    <sheet name="t_order_requests" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396">
   <si>
     <t>用户注册提交-车辆在具体线路排队信息表</t>
   </si>
@@ -107,48 +119,69 @@
     <t>货车标识</t>
   </si>
   <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>排队车主联系人电话</t>
+  </si>
+  <si>
+    <t>通过car_id关联到t_users_table表的手机号</t>
+  </si>
+  <si>
+    <t>start_site_id</t>
+  </si>
+  <si>
+    <t>出发城市代码</t>
+  </si>
+  <si>
+    <t>end_site_id</t>
+  </si>
+  <si>
+    <t>到达城市代码</t>
+  </si>
+  <si>
+    <t>inqueue_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>入队时间</t>
+  </si>
+  <si>
+    <t>timeout_seconds</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>响应超时描述</t>
+  </si>
+  <si>
+    <t>货主收到车辆需求推送后最大响应反馈时间</t>
+  </si>
+  <si>
+    <t>outqueue_time</t>
+  </si>
+  <si>
+    <t>出队时间</t>
+  </si>
+  <si>
+    <t>考虑未来评估司机入队等待时间指标</t>
+  </si>
+  <si>
+    <t>发货方注册提交-发运行程信息表</t>
+  </si>
+  <si>
     <t>path_line_id</t>
   </si>
   <si>
     <t>路线标识</t>
   </si>
   <si>
-    <t>inqueue_time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>入队时间</t>
-  </si>
-  <si>
-    <t>timeout_seconds</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>响应超时描述</t>
-  </si>
-  <si>
-    <t>货主收到车辆需求推送后最大响应反馈时间</t>
-  </si>
-  <si>
-    <t>outqueue_time</t>
-  </si>
-  <si>
-    <t>出队时间</t>
-  </si>
-  <si>
-    <t>考虑未来评估司机入队等待时间指标</t>
-  </si>
-  <si>
-    <t>发货方注册提交-发运行程信息表</t>
-  </si>
-  <si>
-    <t>start_site_id</t>
-  </si>
-  <si>
     <t>varchar(6)</t>
   </si>
   <si>
@@ -158,9 +191,6 @@
     <t>起点城市邮编</t>
   </si>
   <si>
-    <t>end_site_id</t>
-  </si>
-  <si>
     <t>终点城市代码</t>
   </si>
   <si>
@@ -218,12 +248,12 @@
     <t>用户标识</t>
   </si>
   <si>
+    <t>唯一性索引</t>
+  </si>
+  <si>
     <t>login_id</t>
   </si>
   <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
     <t>用户ID</t>
   </si>
   <si>
@@ -233,9 +263,6 @@
     <t>登录密码</t>
   </si>
   <si>
-    <t>phone_number</t>
-  </si>
-  <si>
     <t>手机号</t>
   </si>
   <si>
@@ -245,6 +272,12 @@
     <t>注册日期</t>
   </si>
   <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
     <t>user_name</t>
   </si>
   <si>
@@ -284,13 +317,34 @@
     <t>身份证号</t>
   </si>
   <si>
+    <t>实名认证（身份证信息经公安机关备案）认证通过时,这两个字段不允许为空，程序控制</t>
+  </si>
+  <si>
     <t>real_name</t>
   </si>
   <si>
     <t>真实姓名</t>
   </si>
   <si>
-    <t>实用认证（身份证信息经公安机关备案）</t>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t>审核人</t>
+  </si>
+  <si>
+    <t>实名认证（身份证信息经公安机关备案）</t>
+  </si>
+  <si>
+    <t>audit_date</t>
+  </si>
+  <si>
+    <t>审核时间</t>
+  </si>
+  <si>
+    <t>audit_remark</t>
+  </si>
+  <si>
+    <t>审核备注</t>
   </si>
   <si>
     <t>end_date</t>
@@ -305,7 +359,7 @@
     <t>车主标识</t>
   </si>
   <si>
-    <t>用于车主认证，信息不为空（驾驶证、行驶证进过严格审核）</t>
+    <t>用于已认证车主时信息不为空（驾驶证、行驶证进过严格审核）</t>
   </si>
   <si>
     <t>zhima_id</t>
@@ -314,6 +368,9 @@
     <t>芝麻信用</t>
   </si>
   <si>
+    <t>支付宝应用积分</t>
+  </si>
+  <si>
     <t>face_id</t>
   </si>
   <si>
@@ -323,28 +380,49 @@
     <t>人脸识别认证</t>
   </si>
   <si>
-    <t>music_tips</t>
+    <t>map_tips</t>
   </si>
   <si>
     <t>char(1)</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>实时路况</t>
+  </si>
+  <si>
+    <t>打开后168APP端将显示实时路况（调用第三方导航地图)</t>
+  </si>
+  <si>
+    <t>voice_tips</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>实时路况</t>
-  </si>
-  <si>
-    <t>打开后滴露汇总将显示实时路况</t>
-  </si>
-  <si>
-    <t>travl_tips</t>
-  </si>
-  <si>
     <t>音效提示</t>
   </si>
   <si>
-    <t>打开后讲义语音为您播报订单状态</t>
+    <t>打开后将以语音为您播报新订单(语音推送订单消息)</t>
+  </si>
+  <si>
+    <t>message_tips</t>
+  </si>
+  <si>
+    <t>短信提示</t>
+  </si>
+  <si>
+    <t>打开后将以短信方式推送新订单(短信推送订单消息)</t>
+  </si>
+  <si>
+    <t>call_tips</t>
+  </si>
+  <si>
+    <t>电话提示</t>
+  </si>
+  <si>
+    <t>打开后将以电话方式推送新订单(短信推送订单消息)</t>
   </si>
   <si>
     <t>wallet_banances</t>
@@ -386,9 +464,6 @@
     <t>nopassword_pay</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>是否开通小额免密支付</t>
   </si>
   <si>
@@ -422,7 +497,7 @@
     <t>plate_address</t>
   </si>
   <si>
-    <t>住址</t>
+    <t>住址(行驶证地址)</t>
   </si>
   <si>
     <t>use_character</t>
@@ -434,6 +509,12 @@
     <t>使用性质</t>
   </si>
   <si>
+    <t>operate_card</t>
+  </si>
+  <si>
+    <t>营运证/道路运行许可证</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -473,6 +554,18 @@
     <t>半挂、。。。</t>
   </si>
   <si>
+    <t>tonnage</t>
+  </si>
+  <si>
+    <t>吨位</t>
+  </si>
+  <si>
+    <t>gps_number</t>
+  </si>
+  <si>
+    <t>GPS号</t>
+  </si>
+  <si>
     <t>用户注册提交-车辆所有者（车主)信息表</t>
   </si>
   <si>
@@ -515,168 +608,231 @@
     <t>出发城市邮编</t>
   </si>
   <si>
+    <t>end_site_class</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>路线目的地区域等级分类(城市、省/自治区/直辖市、大区:华北、华中...)</t>
+  </si>
+  <si>
+    <t>end_site_code</t>
+  </si>
+  <si>
+    <t>到达区域代码</t>
+  </si>
+  <si>
+    <t>有效开始日期</t>
+  </si>
+  <si>
+    <t>失效日期</t>
+  </si>
+  <si>
+    <t>用户关联紧急联系人表1：M</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>用户自定义设置信息-用户长出入城市信息表1：M</t>
+  </si>
+  <si>
+    <t>site_code</t>
+  </si>
+  <si>
+    <t>出入城市邮编</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>出入城市名称</t>
+  </si>
+  <si>
+    <t>site_alias</t>
+  </si>
+  <si>
+    <t>别称(家、公司、天津港、友发-邯郸....)</t>
+  </si>
+  <si>
+    <t>用户账户安全设置信息-用户小额免密支付方式信息表1：M</t>
+  </si>
+  <si>
+    <t>weixing_account_id</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>zhifubao_account_id</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>bank_card_id</t>
+  </si>
+  <si>
+    <t>一网通银行卡</t>
+  </si>
+  <si>
+    <t>internatinal_card</t>
+  </si>
+  <si>
+    <t>国际信用卡</t>
+  </si>
+  <si>
+    <t>qq_account_id</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>小额付款交易信息-用户小额免密支付交易信息表1：M</t>
+  </si>
+  <si>
+    <t>pay_type</t>
+  </si>
+  <si>
+    <t>付款方式</t>
+  </si>
+  <si>
+    <t>pay_account_id</t>
+  </si>
+  <si>
+    <t>付款方账户标识</t>
+  </si>
+  <si>
+    <t>pay_submit_date</t>
+  </si>
+  <si>
+    <t>付款提交时间</t>
+  </si>
+  <si>
+    <t>payee_account_type</t>
+  </si>
+  <si>
+    <t>收款账户类型</t>
+  </si>
+  <si>
+    <t>payee_account_id</t>
+  </si>
+  <si>
+    <t>收款账户标识</t>
+  </si>
+  <si>
+    <t>payee_confirm_date</t>
+  </si>
+  <si>
+    <t>收款到账日期</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>用户账户安全设置信息-用户余额信息表1：M</t>
+  </si>
+  <si>
+    <t>transaction_type</t>
+  </si>
+  <si>
+    <t>交易方式</t>
+  </si>
+  <si>
+    <t>提现、充值、支付、。。。</t>
+  </si>
+  <si>
+    <t>用户设置信息-用户采购保险信息表1：M</t>
+  </si>
+  <si>
+    <t>insurance_id</t>
+  </si>
+  <si>
+    <t>保险标识</t>
+  </si>
+  <si>
+    <t>保险其他描述信息字段</t>
+  </si>
+  <si>
+    <t>用户用户积分商城活动信息-用户积分商城交易信息表1：M</t>
+  </si>
+  <si>
+    <t>交易类型(获得奖励、采购兑换。。。。)</t>
+  </si>
+  <si>
+    <t>transaction_points</t>
+  </si>
+  <si>
+    <t>交易积分</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>兑换商品信息(当交易类型为兑换积分时,product_id不能为空,由程序控制.标记兑换商品信息标识</t>
+  </si>
+  <si>
+    <t>用户分享信息-用户邀请奖励信息表1：M</t>
+  </si>
+  <si>
+    <t>invite_link</t>
+  </si>
+  <si>
+    <t>分享链接标识</t>
+  </si>
+  <si>
+    <t>invite_type</t>
+  </si>
+  <si>
+    <t>分享方式</t>
+  </si>
+  <si>
+    <t>用户行程事务处理信息-用户长出入城市信息表1：M</t>
+  </si>
+  <si>
+    <t>shipper_id</t>
+  </si>
+  <si>
+    <t>发货方标识</t>
+  </si>
+  <si>
+    <t>travel_id</t>
+  </si>
+  <si>
+    <t>行程标识</t>
+  </si>
+  <si>
+    <t>travel_date</t>
+  </si>
+  <si>
+    <t>行程日期</t>
+  </si>
+  <si>
+    <t>start_site_code</t>
+  </si>
+  <si>
+    <t>start_site_name</t>
+  </si>
+  <si>
+    <t>出发城市地址</t>
+  </si>
+  <si>
     <t>到达城市邮编</t>
   </si>
   <si>
-    <t>有效开始日期</t>
-  </si>
-  <si>
-    <t>失效日期</t>
-  </si>
-  <si>
-    <t>用户关联紧急联系人表1：M</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>用户自定义设置信息-用户长出入城市信息表1：M</t>
-  </si>
-  <si>
-    <t>site_code</t>
-  </si>
-  <si>
-    <t>出入城市邮编</t>
-  </si>
-  <si>
-    <t>site_name</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>出入城市名称</t>
-  </si>
-  <si>
-    <t>site_alias</t>
-  </si>
-  <si>
-    <t>别称(家、公司、天津港、友发-邯郸....)</t>
-  </si>
-  <si>
-    <t>用户账户安全设置信息-用户小额免密支付方式信息表1：M</t>
-  </si>
-  <si>
-    <t>weixing_id</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>zhifubao_id</t>
-  </si>
-  <si>
-    <t>支付宝</t>
-  </si>
-  <si>
-    <t>bank_card_id</t>
-  </si>
-  <si>
-    <t>一网通银行卡</t>
-  </si>
-  <si>
-    <t>internatinal_card</t>
-  </si>
-  <si>
-    <t>国际信用卡</t>
-  </si>
-  <si>
-    <t>qq_id</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>用户账户安全设置信息-用户余额信息表1：M</t>
-  </si>
-  <si>
-    <t>transaction_type</t>
-  </si>
-  <si>
-    <t>交易方式</t>
-  </si>
-  <si>
-    <t>提现、充值、支付、。。。</t>
-  </si>
-  <si>
-    <t>用户设置信息-用户采购保险信息表1：M</t>
-  </si>
-  <si>
-    <t>insurance_id</t>
-  </si>
-  <si>
-    <t>保险标识</t>
-  </si>
-  <si>
-    <t>保险其他描述信息字段</t>
-  </si>
-  <si>
-    <t>用户用户积分商城活动信息-用户积分商城交易信息表1：M</t>
-  </si>
-  <si>
-    <t>交易类型(获得奖励、采购兑换。。。。)</t>
-  </si>
-  <si>
-    <t>transaction_points</t>
-  </si>
-  <si>
-    <t>交易积分</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>兑换商品信息(当交易类型为兑换积分时,product_id不能为空,由程序控制.标记兑换商品信息标识</t>
-  </si>
-  <si>
-    <t>用户分享信息-用户邀请奖励信息表1：M</t>
-  </si>
-  <si>
-    <t>invite_link</t>
-  </si>
-  <si>
-    <t>分享链接标识</t>
-  </si>
-  <si>
-    <t>invite_type</t>
-  </si>
-  <si>
-    <t>分享方式</t>
-  </si>
-  <si>
-    <t>用户行程事务处理信息-用户长出入城市信息表1：M</t>
-  </si>
-  <si>
-    <t>travel_id</t>
-  </si>
-  <si>
-    <t>行程标识</t>
-  </si>
-  <si>
-    <t>travel_date</t>
-  </si>
-  <si>
-    <t>行程日期</t>
-  </si>
-  <si>
-    <t>start_site_code</t>
-  </si>
-  <si>
-    <t>start_site_name</t>
-  </si>
-  <si>
-    <t>出发城市地址</t>
-  </si>
-  <si>
-    <t>end_site_code</t>
-  </si>
-  <si>
     <t>end_site_name</t>
   </si>
   <si>
@@ -698,21 +854,12 @@
     <t>拼车、独享</t>
   </si>
   <si>
-    <t>transaction_user_id</t>
-  </si>
-  <si>
-    <t>行程单交易方对方标识（货主/司机）ID</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>费用</t>
   </si>
   <si>
-    <t>pay_type</t>
-  </si>
-  <si>
     <t>支付方式</t>
   </si>
   <si>
@@ -731,7 +878,13 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>评价词汇</t>
+    <t>评价词汇(一个关键词、一条记录)</t>
+  </si>
+  <si>
+    <t>evaluate_date</t>
+  </si>
+  <si>
+    <t>评价时间(YYYY-MM-DD HH24:MI:SS)</t>
   </si>
   <si>
     <t>invoice_id</t>
@@ -752,9 +905,6 @@
     <t>开票类型</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>开票金额</t>
   </si>
   <si>
@@ -770,7 +920,316 @@
     <t>行程客服中心关联信息表</t>
   </si>
   <si>
+    <t>support_type</t>
+  </si>
+  <si>
+    <t>售后类型（费用、丢失物品....)</t>
+  </si>
+  <si>
     <t>行程售后信息。。。。</t>
+  </si>
+  <si>
+    <t>货主注册提交-货主基本信息表</t>
+  </si>
+  <si>
+    <t>shipper_type</t>
+  </si>
+  <si>
+    <t>发货方类型(个人、公司)</t>
+  </si>
+  <si>
+    <t>货主注册提交-货主明细信息表</t>
+  </si>
+  <si>
+    <t>nation_code</t>
+  </si>
+  <si>
+    <t>发货方所在国家代码（086:中国 ......)</t>
+  </si>
+  <si>
+    <t>province_code</t>
+  </si>
+  <si>
+    <t>发货方所在省/州/邦 代码(010：北京.....)</t>
+  </si>
+  <si>
+    <t>city_code</t>
+  </si>
+  <si>
+    <t>发货方所在城市 代码(010：北京.....)</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>发货方所在县/区代码</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>地址明细(街道....）</t>
+  </si>
+  <si>
+    <t>外部官方数据库初始化导入-国家/地区信息表</t>
+  </si>
+  <si>
+    <t>国家代码</t>
+  </si>
+  <si>
+    <t>nation_short_name</t>
+  </si>
+  <si>
+    <t>国家简称(例：中国)</t>
+  </si>
+  <si>
+    <t>nation_name</t>
+  </si>
+  <si>
+    <t>国家全称(中华人名共和国),根据不同的报告显示全称或简称</t>
+  </si>
+  <si>
+    <t>nation_desc</t>
+  </si>
+  <si>
+    <t>国家描述</t>
+  </si>
+  <si>
+    <t>continent_name</t>
+  </si>
+  <si>
+    <t>所属洲（大陆）</t>
+  </si>
+  <si>
+    <t>外部官方数据库初始化导入:可管理员自定义-国家大区信息表</t>
+  </si>
+  <si>
+    <t>region_code</t>
+  </si>
+  <si>
+    <t>大区代码</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>大区名称</t>
+  </si>
+  <si>
+    <t>region_desc</t>
+  </si>
+  <si>
+    <t>大区描述</t>
+  </si>
+  <si>
+    <t>外部官方数据库初始化导入-省/自治区/直辖市/州/邦...信息表</t>
+  </si>
+  <si>
+    <t>国家一级行政区域代码</t>
+  </si>
+  <si>
+    <t>province_short_name</t>
+  </si>
+  <si>
+    <t>省份简称(根据国家名称决定标签:省、直辖市、自治区、邦、州,不同国家不同的标签）</t>
+  </si>
+  <si>
+    <t>province_name</t>
+  </si>
+  <si>
+    <t>省份全称</t>
+  </si>
+  <si>
+    <t>区域分类(华北、华东、华中、西北、华南、西南、东北、东南）</t>
+  </si>
+  <si>
+    <t>外部官方数据库初始化导入-地/市(二级行政单位)...信息表</t>
+  </si>
+  <si>
+    <t>城市邮政编码</t>
+  </si>
+  <si>
+    <t>city_short_name</t>
+  </si>
+  <si>
+    <t>城市简称(天津：津，河北：冀....),可为空(无简称)</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>城市名称</t>
+  </si>
+  <si>
+    <t>city_desc</t>
+  </si>
+  <si>
+    <t>描述信息</t>
+  </si>
+  <si>
+    <t>外部官方数据库初始化导入-县/市(三级行政单位)...信息表</t>
+  </si>
+  <si>
+    <t>国家二级行政区域代码</t>
+  </si>
+  <si>
+    <t>县市邮政编码</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>县市名称</t>
+  </si>
+  <si>
+    <t>country_desc</t>
+  </si>
+  <si>
+    <t>县市描述信息</t>
+  </si>
+  <si>
+    <t>初始设置时由-（国-大区-省-城市）加载-地市维表信息表</t>
+  </si>
+  <si>
+    <t>dim_key</t>
+  </si>
+  <si>
+    <t>系统初始设置-系统常用代码表</t>
+  </si>
+  <si>
+    <t>lookup_id</t>
+  </si>
+  <si>
+    <t>LOOKUP_KEY</t>
+  </si>
+  <si>
+    <t>lookup_code</t>
+  </si>
+  <si>
+    <t>LOOKUP_代码</t>
+  </si>
+  <si>
+    <t>lookup_name</t>
+  </si>
+  <si>
+    <t>LOOKUP_名称</t>
+  </si>
+  <si>
+    <t>lookup_value</t>
+  </si>
+  <si>
+    <t>LOOKUP_值</t>
+  </si>
+  <si>
+    <t>lookup_desc</t>
+  </si>
+  <si>
+    <t>LOOKUP_描述</t>
+  </si>
+  <si>
+    <t>启用时间</t>
+  </si>
+  <si>
+    <t>失效时间</t>
+  </si>
+  <si>
+    <t>样例数据：</t>
+  </si>
+  <si>
+    <t>L0000001</t>
+  </si>
+  <si>
+    <t>cargo_type_code</t>
+  </si>
+  <si>
+    <t>货型代码</t>
+  </si>
+  <si>
+    <t>L0000002</t>
+  </si>
+  <si>
+    <t>goods_depict</t>
+  </si>
+  <si>
+    <t>货品描述</t>
+  </si>
+  <si>
+    <t>L0000003</t>
+  </si>
+  <si>
+    <t>goods_type</t>
+  </si>
+  <si>
+    <t>货品大类</t>
+  </si>
+  <si>
+    <t>lookup_value_id</t>
+  </si>
+  <si>
+    <t>LOOKUP_VALUE_ID</t>
+  </si>
+  <si>
+    <t>LOOKUP_key</t>
+  </si>
+  <si>
+    <t>样例数据</t>
+  </si>
+  <si>
+    <t>V0000001</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>V0000002</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>V0000003</t>
+  </si>
+  <si>
+    <t>E98</t>
+  </si>
+  <si>
+    <t>V0000004</t>
+  </si>
+  <si>
+    <t>钢材</t>
+  </si>
+  <si>
+    <t>V0000005</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>V0000006</t>
+  </si>
+  <si>
+    <t>汽车零件</t>
+  </si>
+  <si>
+    <t>V0000007</t>
+  </si>
+  <si>
+    <t>黑色金属</t>
+  </si>
+  <si>
+    <t>V0000008</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>V0000009</t>
+  </si>
+  <si>
+    <t>有色金属</t>
+  </si>
+  <si>
+    <t>货主用车需求提交-用车需求</t>
   </si>
 </sst>
 </file>
@@ -779,11 +1238,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +1254,20 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -812,9 +1285,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,8 +1353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,15 +1363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,6 +1381,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,52 +1414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -951,7 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +1436,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +1532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,25 +1556,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,121 +1598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,21 +1615,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1177,6 +1635,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1186,29 +1668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,17 +1698,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,10 +1723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,145 +1735,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1716,10 +2201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1730,20 +2215,20 @@
     <col min="4" max="4" width="4.375" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -1772,13 +2257,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1842,60 +2327,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1903,8 +2385,42 @@
       <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1919,28 +2435,33 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -1969,13 +2490,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1990,7 +2511,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1999,38 +2520,108 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" t="s">
-        <v>190</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2045,27 +2636,29 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -2094,13 +2687,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2115,7 +2708,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2124,26 +2717,55 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>235</v>
+      </c>
+      <c r="H6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2156,6 +2778,119 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G8"/>
@@ -2174,15 +2909,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -2211,13 +2946,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2232,7 +2967,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2241,63 +2976,63 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G6"/>
@@ -2328,15 +3063,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -2365,13 +3100,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2386,7 +3121,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2395,32 +3130,32 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2432,13 +3167,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2454,15 +3189,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -2491,13 +3226,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2512,7 +3247,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2521,12 +3256,12 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -2535,141 +3270,141 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2678,35 +3413,35 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2718,20 +3453,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2761,13 +3497,13 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -2782,7 +3518,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2790,28 +3526,27 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3"/>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -2820,7 +3555,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2829,13 +3578,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -2872,13 +3621,13 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -2893,7 +3642,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2901,14 +3650,13 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3"/>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -2917,40 +3665,43 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2959,12 +3710,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="7:7">
       <c r="G8" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2973,16 +3724,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G25:G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -3017,13 +3768,13 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -3038,7 +3789,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3046,14 +3797,13 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3"/>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -3062,18 +3812,243 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="7:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3082,10 +4057,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3100,15 +4075,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -3137,13 +4112,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -3158,153 +4133,2019 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>57</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="56.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="80.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="46.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="80.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="G5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="5">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42898</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3319,31 +6160,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="44.125" customWidth="1"/>
+    <col min="8" max="8" width="80.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -3372,13 +6214,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -3391,9 +6233,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -3402,26 +6244,32 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -3430,324 +6278,435 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>89</v>
+      <c r="A16" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3762,10 +6721,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3773,19 +6732,20 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -3814,13 +6774,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -3835,7 +6795,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -3844,10 +6804,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3860,38 +6820,44 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>145</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -3900,12 +6866,12 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -3914,125 +6880,221 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>134</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>135</v>
+      <c r="G11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" t="s">
-        <v>146</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +7112,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4064,15 +7126,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4101,13 +7163,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -4122,7 +7184,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -4131,91 +7193,91 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4230,30 +7292,30 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4282,13 +7344,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -4303,7 +7365,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -4312,66 +7374,83 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4399,15 +7478,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4436,13 +7515,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -4457,7 +7536,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -4466,26 +7545,26 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -4494,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4526,15 +7605,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4563,13 +7642,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -4584,7 +7663,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -4593,40 +7672,40 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -4635,10 +7714,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4656,26 +7735,29 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4704,13 +7786,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -4725,7 +7807,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -4734,77 +7816,77 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
